--- a/Skin Depth/copperData.xlsx
+++ b/Skin Depth/copperData.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hollm\OneDrive\Desktop\College\Physics\ASTRO_LABS\Skin Depth\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db7484fe1986895b/Desktop/College/Physics/UCD_PASS_Labs/Skin Depth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECB4DC5-9506-4484-B019-D718E5A287F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{AECB4DC5-9506-4484-B019-D718E5A287F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DF14AAA-0FB7-4EE0-BCCA-118CC6BBED74}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F4BCC00B-02F3-4BA5-ACB4-60E83E910B3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F4BCC00B-02F3-4BA5-ACB4-60E83E910B3F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Copper" sheetId="1" r:id="rId1"/>
+    <sheet name="Aluminium" sheetId="2" r:id="rId2"/>
+    <sheet name="Brass" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>19mA</t>
   </si>
@@ -51,6 +53,21 @@
   </si>
   <si>
     <t>u=0.005 mV</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Uncertainty</t>
+  </si>
+  <si>
+    <t>within 0.1mA</t>
+  </si>
+  <si>
+    <t>DEVIATION FROM LINEAR</t>
   </si>
 </sst>
 </file>
@@ -402,61 +419,1070 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD0EF7-92E6-4114-9A49-61FC507AF7F1}">
-  <dimension ref="B2:C16"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A4" zoomScale="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>62500</v>
       </c>
       <c r="C5">
         <v>63.45</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>62500</v>
+      </c>
+      <c r="F5">
+        <v>67.290000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>60500</v>
+      </c>
+      <c r="F6">
+        <v>63.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>58500</v>
+      </c>
+      <c r="F7">
+        <v>61.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>56500</v>
+      </c>
+      <c r="F8">
+        <v>57.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>54500</v>
+      </c>
+      <c r="F9">
+        <v>54.54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>28000</v>
       </c>
       <c r="C10">
         <v>24.72</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>52500</v>
+      </c>
+      <c r="F10">
+        <v>51.79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>50500</v>
+      </c>
+      <c r="F11">
+        <v>49.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>48500</v>
+      </c>
+      <c r="F12">
+        <v>46.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>46500</v>
+      </c>
+      <c r="F13">
+        <v>44.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>44500</v>
+      </c>
+      <c r="F14">
+        <v>41.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>42500</v>
+      </c>
+      <c r="F15">
+        <v>40.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>6500</v>
       </c>
       <c r="C16">
         <v>6.81</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>40500</v>
+      </c>
+      <c r="F16">
+        <v>37.840000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>38500</v>
+      </c>
+      <c r="F17">
+        <v>35.97</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>36500</v>
+      </c>
+      <c r="F18">
+        <v>33.75</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>34500</v>
+      </c>
+      <c r="F19">
+        <v>31.16</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>32500</v>
+      </c>
+      <c r="F20">
+        <v>29.19</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>30500</v>
+      </c>
+      <c r="F21">
+        <v>27.43</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>28500</v>
+      </c>
+      <c r="F22">
+        <v>25.95</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>26500</v>
+      </c>
+      <c r="F23">
+        <v>23.61</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>24500</v>
+      </c>
+      <c r="F24">
+        <v>21.81</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>22500</v>
+      </c>
+      <c r="F25">
+        <v>20.28</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>20500</v>
+      </c>
+      <c r="F26">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>18500</v>
+      </c>
+      <c r="F27">
+        <v>17.239999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>16500</v>
+      </c>
+      <c r="F28">
+        <v>15.64</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>14500</v>
+      </c>
+      <c r="F29">
+        <v>14.08</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>12500</v>
+      </c>
+      <c r="F30">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>10500</v>
+      </c>
+      <c r="F31">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>8500</v>
+      </c>
+      <c r="F32">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>6500</v>
+      </c>
+      <c r="F33">
+        <v>6.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E84762-0146-4F55-BDB5-72E84AFD1714}">
+  <dimension ref="B2:E34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>62500</v>
+      </c>
+      <c r="D6">
+        <v>45.28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>60500</v>
+      </c>
+      <c r="D7">
+        <v>42.15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>58500</v>
+      </c>
+      <c r="D8">
+        <v>40.86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>56500</v>
+      </c>
+      <c r="D9">
+        <v>38.26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>54500</v>
+      </c>
+      <c r="D10">
+        <v>37.049999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>52500</v>
+      </c>
+      <c r="D11">
+        <v>35.549999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>50500</v>
+      </c>
+      <c r="D12">
+        <v>33.71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>48500</v>
+      </c>
+      <c r="D13">
+        <v>32.549999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>46500</v>
+      </c>
+      <c r="D14">
+        <v>30.74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>44500</v>
+      </c>
+      <c r="D15">
+        <v>30.32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>42500</v>
+      </c>
+      <c r="D16">
+        <v>27.81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>40500</v>
+      </c>
+      <c r="D17">
+        <v>27.21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>38500</v>
+      </c>
+      <c r="D18">
+        <v>25.36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>36500</v>
+      </c>
+      <c r="D19">
+        <v>24.66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>34500</v>
+      </c>
+      <c r="D20">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>32500</v>
+      </c>
+      <c r="D21">
+        <v>22.28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>30500</v>
+      </c>
+      <c r="D22">
+        <v>20.64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>28500</v>
+      </c>
+      <c r="D23">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>26500</v>
+      </c>
+      <c r="D24">
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>24500</v>
+      </c>
+      <c r="D25">
+        <v>17.87</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>22500</v>
+      </c>
+      <c r="D26">
+        <v>16.190000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>20500</v>
+      </c>
+      <c r="D27">
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>18500</v>
+      </c>
+      <c r="D28">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>16500</v>
+      </c>
+      <c r="D29">
+        <v>13.24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>14500</v>
+      </c>
+      <c r="D30">
+        <v>11.79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>12500</v>
+      </c>
+      <c r="D31">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>10500</v>
+      </c>
+      <c r="D32">
+        <v>9.2100000000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>8500</v>
+      </c>
+      <c r="D33">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>6500</v>
+      </c>
+      <c r="D34">
+        <v>6.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3CE4E6-032B-45B6-B48A-BB34E7C5F0EB}">
+  <dimension ref="B2:D34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D34" sqref="C5:D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>62500</v>
+      </c>
+      <c r="D6">
+        <v>79.47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>60500</v>
+      </c>
+      <c r="D7">
+        <v>75.63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>58500</v>
+      </c>
+      <c r="D8">
+        <v>71.959999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>56500</v>
+      </c>
+      <c r="D9">
+        <v>68.39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>54500</v>
+      </c>
+      <c r="D10">
+        <v>65.510000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>52500</v>
+      </c>
+      <c r="D11">
+        <v>62.41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>50500</v>
+      </c>
+      <c r="D12">
+        <v>59.44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>48500</v>
+      </c>
+      <c r="D13">
+        <v>56.76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>46500</v>
+      </c>
+      <c r="D14">
+        <v>53.85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>44500</v>
+      </c>
+      <c r="D15">
+        <v>51.21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>42500</v>
+      </c>
+      <c r="D16">
+        <v>48.79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>40500</v>
+      </c>
+      <c r="D17">
+        <v>46.62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>38500</v>
+      </c>
+      <c r="D18">
+        <v>44.17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>36500</v>
+      </c>
+      <c r="D19">
+        <v>42.21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>34500</v>
+      </c>
+      <c r="D20">
+        <v>39.74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>32500</v>
+      </c>
+      <c r="D21">
+        <v>37.72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>30500</v>
+      </c>
+      <c r="D22">
+        <v>35.520000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>28500</v>
+      </c>
+      <c r="D23">
+        <v>33.64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>26500</v>
+      </c>
+      <c r="D24">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>24500</v>
+      </c>
+      <c r="D25">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>22500</v>
+      </c>
+      <c r="D26">
+        <v>28.05</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>20500</v>
+      </c>
+      <c r="D27">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>18500</v>
+      </c>
+      <c r="D28">
+        <v>24.33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>16500</v>
+      </c>
+      <c r="D29">
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>14500</v>
+      </c>
+      <c r="D30">
+        <v>20.43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>12500</v>
+      </c>
+      <c r="D31">
+        <v>18.54</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>10500</v>
+      </c>
+      <c r="D32">
+        <v>16.260000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>8500</v>
+      </c>
+      <c r="D33">
+        <v>14.24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>6500</v>
+      </c>
+      <c r="D34">
+        <v>12.04</v>
       </c>
     </row>
   </sheetData>

--- a/Skin Depth/copperData.xlsx
+++ b/Skin Depth/copperData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db7484fe1986895b/Desktop/College/Physics/UCD_PASS_Labs/Skin Depth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{AECB4DC5-9506-4484-B019-D718E5A287F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DF14AAA-0FB7-4EE0-BCCA-118CC6BBED74}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{AECB4DC5-9506-4484-B019-D718E5A287F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CC335BE-296B-47C7-A210-B54D39006606}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F4BCC00B-02F3-4BA5-ACB4-60E83E910B3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{F4BCC00B-02F3-4BA5-ACB4-60E83E910B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Copper" sheetId="1" r:id="rId1"/>
     <sheet name="Aluminium" sheetId="2" r:id="rId2"/>
     <sheet name="Brass" sheetId="3" r:id="rId3"/>
+    <sheet name="Steel" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t>19mA</t>
   </si>
@@ -68,6 +69,9 @@
   </si>
   <si>
     <t>DEVIATION FROM LINEAR</t>
+  </si>
+  <si>
+    <t>Day3</t>
   </si>
 </sst>
 </file>
@@ -421,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD0EF7-92E6-4114-9A49-61FC507AF7F1}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3CE4E6-032B-45B6-B48A-BB34E7C5F0EB}">
   <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D34" sqref="C5:D34"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1488,4 +1492,322 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6594CF3D-6D90-485A-BE28-89E4AF3F6561}">
+  <dimension ref="B2:D34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>62500</v>
+      </c>
+      <c r="D6">
+        <v>712.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>60500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>58500</v>
+      </c>
+      <c r="D8">
+        <v>660.7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>54500</v>
+      </c>
+      <c r="D10">
+        <v>611.20000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>50500</v>
+      </c>
+      <c r="D12">
+        <v>563.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>46500</v>
+      </c>
+      <c r="D14">
+        <v>518.9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>42500</v>
+      </c>
+      <c r="D16">
+        <v>478.89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>38500</v>
+      </c>
+      <c r="D18">
+        <v>443.16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>34500</v>
+      </c>
+      <c r="D20">
+        <v>406.94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>30500</v>
+      </c>
+      <c r="D22">
+        <v>372.14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>26500</v>
+      </c>
+      <c r="D24">
+        <v>337.07</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>22500</v>
+      </c>
+      <c r="D26">
+        <v>306.77999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>18500</v>
+      </c>
+      <c r="D28">
+        <v>255.17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>14500</v>
+      </c>
+      <c r="D30">
+        <v>237.59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>10500</v>
+      </c>
+      <c r="D32">
+        <v>200.63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>6500</v>
+      </c>
+      <c r="D34">
+        <v>154.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Skin Depth/copperData.xlsx
+++ b/Skin Depth/copperData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db7484fe1986895b/Desktop/College/Physics/UCD_PASS_Labs/Skin Depth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{AECB4DC5-9506-4484-B019-D718E5A287F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CC335BE-296B-47C7-A210-B54D39006606}"/>
+  <xr:revisionPtr revIDLastSave="340" documentId="13_ncr:1_{AECB4DC5-9506-4484-B019-D718E5A287F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9BBAE57-5236-4CD0-9875-899FED85E413}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{F4BCC00B-02F3-4BA5-ACB4-60E83E910B3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F4BCC00B-02F3-4BA5-ACB4-60E83E910B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Copper" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>19mA</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Day3</t>
+  </si>
+  <si>
+    <t>Day 3</t>
   </si>
 </sst>
 </file>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD0EF7-92E6-4114-9A49-61FC507AF7F1}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,15 +441,18 @@
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -456,8 +462,11 @@
       <c r="E2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -474,7 +483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -487,8 +496,14 @@
       <c r="F4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>62500</v>
       </c>
@@ -504,8 +519,14 @@
       <c r="F5">
         <v>67.290000000000006</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>62500</v>
+      </c>
+      <c r="I5">
+        <v>61.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>2</v>
       </c>
@@ -515,8 +536,14 @@
       <c r="F6">
         <v>63.94</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>60500</v>
+      </c>
+      <c r="I6">
+        <v>57.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>3</v>
       </c>
@@ -526,8 +553,14 @@
       <c r="F7">
         <v>61.22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>58500</v>
+      </c>
+      <c r="I7">
+        <v>55.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>4</v>
       </c>
@@ -537,8 +570,14 @@
       <c r="F8">
         <v>57.21</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>56500</v>
+      </c>
+      <c r="I8">
+        <v>52.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>5</v>
       </c>
@@ -548,8 +587,14 @@
       <c r="F9">
         <v>54.54</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>54500</v>
+      </c>
+      <c r="I9">
+        <v>49.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>28000</v>
       </c>
@@ -565,8 +610,14 @@
       <c r="F10">
         <v>51.79</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>52500</v>
+      </c>
+      <c r="I10">
+        <v>47.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>7</v>
       </c>
@@ -576,8 +627,14 @@
       <c r="F11">
         <v>49.24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>50500</v>
+      </c>
+      <c r="I11">
+        <v>44.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D12">
         <v>8</v>
       </c>
@@ -587,8 +644,14 @@
       <c r="F12">
         <v>46.68</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>48500</v>
+      </c>
+      <c r="I12">
+        <v>42.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D13">
         <v>9</v>
       </c>
@@ -598,8 +661,14 @@
       <c r="F13">
         <v>44.24</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>46500</v>
+      </c>
+      <c r="I13">
+        <v>40.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D14">
         <v>10</v>
       </c>
@@ -609,8 +678,14 @@
       <c r="F14">
         <v>41.85</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>44500</v>
+      </c>
+      <c r="I14">
+        <v>38.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D15">
         <v>11</v>
       </c>
@@ -620,8 +695,14 @@
       <c r="F15">
         <v>40.04</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>42500</v>
+      </c>
+      <c r="I15">
+        <v>36.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>6500</v>
       </c>
@@ -637,8 +718,14 @@
       <c r="F16">
         <v>37.840000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>40500</v>
+      </c>
+      <c r="I16">
+        <v>34.18</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>13</v>
       </c>
@@ -648,8 +735,14 @@
       <c r="F17">
         <v>35.97</v>
       </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>38500</v>
+      </c>
+      <c r="I17">
+        <v>32.39</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>14</v>
       </c>
@@ -659,8 +752,14 @@
       <c r="F18">
         <v>33.75</v>
       </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>36500</v>
+      </c>
+      <c r="I18">
+        <v>30.57</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>15</v>
       </c>
@@ -670,8 +769,14 @@
       <c r="F19">
         <v>31.16</v>
       </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>34500</v>
+      </c>
+      <c r="I19">
+        <v>28.96</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>16</v>
       </c>
@@ -681,8 +786,14 @@
       <c r="F20">
         <v>29.19</v>
       </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>32500</v>
+      </c>
+      <c r="I20">
+        <v>27.32</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D21">
         <v>17</v>
       </c>
@@ -692,8 +803,14 @@
       <c r="F21">
         <v>27.43</v>
       </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>30500</v>
+      </c>
+      <c r="I21">
+        <v>25.55</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D22">
         <v>18</v>
       </c>
@@ -706,93 +823,165 @@
       <c r="G22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>28500</v>
+      </c>
+      <c r="I22">
+        <v>24.17</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E23">
         <v>26500</v>
       </c>
       <c r="F23">
         <v>23.61</v>
       </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>26500</v>
+      </c>
+      <c r="I23">
+        <v>22.41</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E24">
         <v>24500</v>
       </c>
       <c r="F24">
         <v>21.81</v>
       </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>24500</v>
+      </c>
+      <c r="I24">
+        <v>21.07</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E25">
         <v>22500</v>
       </c>
       <c r="F25">
         <v>20.28</v>
       </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>22500</v>
+      </c>
+      <c r="I25">
+        <v>19.670000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E26">
         <v>20500</v>
       </c>
       <c r="F26">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>20500</v>
+      </c>
+      <c r="I26">
+        <v>18.170000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E27">
         <v>18500</v>
       </c>
       <c r="F27">
         <v>17.239999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>18500</v>
+      </c>
+      <c r="I27">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E28">
         <v>16500</v>
       </c>
       <c r="F28">
         <v>15.64</v>
       </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>16500</v>
+      </c>
+      <c r="I28">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E29">
         <v>14500</v>
       </c>
       <c r="F29">
         <v>14.08</v>
       </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>14500</v>
+      </c>
+      <c r="I29">
+        <v>13.52</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E30">
         <v>12500</v>
       </c>
       <c r="F30">
         <v>12.09</v>
       </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>12500</v>
+      </c>
+      <c r="I30">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E31">
         <v>10500</v>
       </c>
       <c r="F31">
         <v>10.37</v>
       </c>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>10500</v>
+      </c>
+      <c r="I31">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E32">
         <v>8500</v>
       </c>
       <c r="F32">
         <v>8.5500000000000007</v>
       </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>8500</v>
+      </c>
+      <c r="I32">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E33">
         <v>6500</v>
       </c>
       <c r="F33">
         <v>6.69</v>
+      </c>
+      <c r="H33">
+        <v>6500</v>
+      </c>
+      <c r="I33">
+        <v>6.31</v>
       </c>
     </row>
   </sheetData>
@@ -1498,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6594CF3D-6D90-485A-BE28-89E4AF3F6561}">
   <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
